--- a/biology/Botanique/Yucca/Yucca.xlsx
+++ b/biology/Botanique/Yucca/Yucca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yucca est un genre de 40-50 espèces de plantes vivaces arbustives[Note 1] remarquables par leurs rosettes de feuilles dures, en forme d'épée, et par les grappes de fleurs blanches ou tirant sur le blanc. Les yuccas se rencontrent dans les régions chaudes et sèches de l'Amérique du Nord, de l'Amérique centrale, d'Europe du Sud et des Antilles. Ils sont utilisés comme plantes ornementales.
-Le yucca demande une lumière vive tout au long de l'année et peut passer l'hiver au frais[3].
+Le yucca demande une lumière vive tout au long de l'année et peut passer l'hiver au frais.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot yucca vient, via l'espagnol yuca, de la langue des Arawaks d'Haïti[4] et qui est un homonyme du mot tupi-guarani (Amérique du sud, Paraguay) désignant le manioc, qui est d'une toute autre famille botanique (le manioc est une dicotylédone, les yucca sont des monocotylédones).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot yucca vient, via l'espagnol yuca, de la langue des Arawaks d'Haïti et qui est un homonyme du mot tupi-guarani (Amérique du sud, Paraguay) désignant le manioc, qui est d'une toute autre famille botanique (le manioc est une dicotylédone, les yucca sont des monocotylédones).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse naturellement dans les zones à climat méditerranéen et à climat désertique du globe. Il s'adapte très bien aux zones au climat plus froid où il a été introduit.
 </t>
@@ -574,11 +590,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
-En classification phylogénétique APG III (2009)[5] le genre Yucca est assigné à la famille des Asparagaceae alors qu'en classification classique de Cronquist (1981)[6] ce genre était traditionnellement assigné à la famille des Agavaceae.
-Principales espèces
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
+En classification phylogénétique APG III (2009) le genre Yucca est assigné à la famille des Asparagaceae alors qu'en classification classique de Cronquist (1981) ce genre était traditionnellement assigné à la famille des Agavaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yucca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yucca</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	Quelques espèces de yuccas
 			Yucca aloifolia ou Yucca à feuilles d'aloès
 			Yucca baccata ou Yucca banane
@@ -589,8 +643,43 @@
 			Yucca gigantea en plante d'intérieur
 			Yucca thompsoniana ou Yucca à bec
 			Yucca gloriosa ou Yucca superbe
-Systématique selon J. Thiede (2020)
-Selon Joachim Thiede, le genre se structure comme suit[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yucca</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yucca</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Systématique selon J. Thiede (2020)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Joachim Thiede, le genre se structure comme suit :
 Section Yucca
 Série Faxonianae McKelvey ex Hochstätter
 Yucca carnerosana (Trel.) McKelvey
@@ -668,70 +757,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yucca</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Yucca</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentation
-Ses fruits sont souvent comestibles comme ceux de Yucca filifera.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yucca</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Yucca</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Légendes urbaines</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La présence d'araignées dans des yuccas est évoquée pour la première fois en Scandinavie et en Grande-Bretagne au début des années 1970. En France, l'histoire fait surface dans un journal lyonnais en 1986. Chaque fois, le récit est presque identique : l'arrosage du yucca provoque un bruissement des feuilles sans cesse plus fort, jusqu'au moment où des araignées émergent de la plante, les pompiers sont alors appelés pour détruire ces animaux[8],[9],[10]. Cette rumeur est infondée : les araignées ne pondent pas dans les arbres ou la végétation ; de toute façon, les araignées qui sortent de ces œufs sont tellement petites qu'elles n'attireraient en rien l'attention de quiconque. Au plus fort de la rumeur, en 1986, l'importation des yuccas a baissé de près de deux tiers[11].
-La presse nationale avait fini par s'intéresser à cette rumeur et à s'en faire l'écho, non pour la colporter, mais, au contraire, pour la démystifier et l'analyser. Un sociologue avait très justement noté le caractère récurrent de certaines rumeurs stéréotypées, réapparaissant toutes les trois ou quatre décennies, sous une nouvelle forme : ainsi la rumeur de la « mygale dans le yucca » n'était qu'un nouvel avatar d'une ancienne rumeur selon laquelle on avait trouvé un serpent dissimulé dans un régime de bananes. Une vieille peur irrationnelle des végétaux exotiques importés[12].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -753,10 +778,83 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fruits sont souvent comestibles comme ceux de Yucca filifera.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yucca</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yucca</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Légendes urbaines</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présence d'araignées dans des yuccas est évoquée pour la première fois en Scandinavie et en Grande-Bretagne au début des années 1970. En France, l'histoire fait surface dans un journal lyonnais en 1986. Chaque fois, le récit est presque identique : l'arrosage du yucca provoque un bruissement des feuilles sans cesse plus fort, jusqu'au moment où des araignées émergent de la plante, les pompiers sont alors appelés pour détruire ces animaux. Cette rumeur est infondée : les araignées ne pondent pas dans les arbres ou la végétation ; de toute façon, les araignées qui sortent de ces œufs sont tellement petites qu'elles n'attireraient en rien l'attention de quiconque. Au plus fort de la rumeur, en 1986, l'importation des yuccas a baissé de près de deux tiers.
+La presse nationale avait fini par s'intéresser à cette rumeur et à s'en faire l'écho, non pour la colporter, mais, au contraire, pour la démystifier et l'analyser. Un sociologue avait très justement noté le caractère récurrent de certaines rumeurs stéréotypées, réapparaissant toutes les trois ou quatre décennies, sous une nouvelle forme : ainsi la rumeur de la « mygale dans le yucca » n'était qu'un nouvel avatar d'une ancienne rumeur selon laquelle on avait trouvé un serpent dissimulé dans un régime de bananes. Une vieille peur irrationnelle des végétaux exotiques importés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yucca</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yucca</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Toponymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces plantes étant très répandues dans le sud-ouest des États-Unis, de nombreux lieux portent leur nom : 
 Yucca Valley, en Californie,
